--- a/experiment/1_tr_phrase_countvectorizer.xlsx
+++ b/experiment/1_tr_phrase_countvectorizer.xlsx
@@ -7997,17 +7997,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>february</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
           <t>kv</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>february</t>
-        </is>
-      </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>tegangan</t>
+          <t>st</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -8050,14 +8050,14 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>no_match</t>
+          <t>partial_match</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="109">
@@ -12049,7 +12049,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2.269999980926514</v>
+        <v>2.279999971389771</v>
       </c>
       <c r="E165" t="n">
         <v>2.25</v>
@@ -21417,7 +21417,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>dilaksanakan</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -29304,7 +29304,7 @@
         <v>6.33</v>
       </c>
       <c r="E415" t="n">
-        <v>5.56</v>
+        <v>5.57</v>
       </c>
       <c r="F415" t="n">
         <v>4.51</v>
@@ -32177,7 +32177,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="E455" t="n">
         <v>6.56</v>
@@ -50021,7 +50021,7 @@
         </is>
       </c>
       <c r="D715" t="n">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="E715" t="n">
         <v>4.81</v>
@@ -55101,7 +55101,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="E793" t="n">
         <v>6.76</v>
@@ -55958,7 +55958,7 @@
         <v>1.450000047683716</v>
       </c>
       <c r="E806" t="n">
-        <v>1.419999957084656</v>
+        <v>1.409999966621399</v>
       </c>
       <c r="F806" t="n">
         <v>1.399999976158142</v>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>3.83</v>
+        <v>3.82</v>
       </c>
       <c r="E818" t="n">
         <v>3.73</v>
@@ -64292,7 +64292,7 @@
         <v>2.39</v>
       </c>
       <c r="F931" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="G931" t="inlineStr">
         <is>
